--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallnest\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\Jax-RS-Performance-Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -931,16 +930,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>54307</c:v>
+                  <c:v>94730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52610</c:v>
+                  <c:v>91869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41970</c:v>
+                  <c:v>97880</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39695</c:v>
+                  <c:v>96082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,11 +1134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182467616"/>
-        <c:axId val="182476864"/>
+        <c:axId val="374280000"/>
+        <c:axId val="374274560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182467616"/>
+        <c:axId val="374280000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182476864"/>
+        <c:crossAx val="374274560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182476864"/>
+        <c:axId val="374274560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182467616"/>
+        <c:crossAx val="374280000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,16 +1892,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2190,7 +2189,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:L5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2272,7 +2271,7 @@
         <v>132124</v>
       </c>
       <c r="J2">
-        <v>54307</v>
+        <v>94730</v>
       </c>
       <c r="K2">
         <v>115388</v>
@@ -2310,7 +2309,7 @@
         <v>136819</v>
       </c>
       <c r="J3">
-        <v>52610</v>
+        <v>91869</v>
       </c>
       <c r="K3">
         <v>107394</v>
@@ -2348,7 +2347,7 @@
         <v>150848</v>
       </c>
       <c r="J4">
-        <v>41970</v>
+        <v>97880</v>
       </c>
       <c r="K4">
         <v>112292</v>
@@ -2386,7 +2385,7 @@
         <v>157019</v>
       </c>
       <c r="J5">
-        <v>39695</v>
+        <v>96082</v>
       </c>
       <c r="K5">
         <v>113775</v>
